--- a/schemas/xlsx/base_stx_fish.xlsx
+++ b/schemas/xlsx/base_stx_fish.xlsx
@@ -8,12 +8,10 @@
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="allowed_values" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="bca" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="dwc" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="global" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="minsce" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="mixs" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="tol" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="dwc" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ei" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mixs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="tol" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,7 +466,7 @@
   <cols>
     <col width="17.140625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="37.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="41" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="255.7109375" bestFit="1" customWidth="1" min="6" max="7"/>
@@ -495,7 +493,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace_prefix</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -572,7 +570,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -615,7 +613,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -642,7 +640,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -690,7 +688,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -717,7 +715,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -765,7 +763,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -792,7 +790,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -835,7 +833,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1382,7 +1380,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1425,7 +1423,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1452,7 +1450,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1495,7 +1493,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1672,7 +1670,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1887,7 +1885,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>minsce</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2107,7 +2105,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2150,7 +2148,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3262,7 +3260,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>bca</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -17457,7 +17455,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -17500,7 +17498,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -17527,7 +17525,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -17570,7 +17568,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -17597,7 +17595,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -17640,7 +17638,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -17667,7 +17665,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -17710,7 +17708,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -17737,7 +17735,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -17785,7 +17783,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -17812,7 +17810,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -17855,7 +17853,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -17882,7 +17880,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -17925,7 +17923,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -17952,7 +17950,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -17995,7 +17993,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -18022,7 +18020,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -18065,7 +18063,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -18092,7 +18090,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -18140,7 +18138,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -18167,7 +18165,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -18210,7 +18208,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -18237,7 +18235,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -18280,7 +18278,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -18307,7 +18305,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -18350,7 +18348,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -18377,7 +18375,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -18420,7 +18418,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -18447,7 +18445,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -18490,7 +18488,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -18517,7 +18515,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -18560,7 +18558,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -18587,7 +18585,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -18630,7 +18628,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -18657,7 +18655,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -18700,7 +18698,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -18727,7 +18725,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -18770,7 +18768,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -18797,7 +18795,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -18840,7 +18838,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -18867,7 +18865,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -18910,7 +18908,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -18937,7 +18935,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -18980,7 +18978,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -19007,7 +19005,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -19050,7 +19048,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -19077,7 +19075,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -19120,7 +19118,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -19147,7 +19145,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -19190,7 +19188,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -19217,7 +19215,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -19260,7 +19258,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -19287,7 +19285,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -19330,7 +19328,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -19357,7 +19355,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -19400,7 +19398,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -21149,190 +21147,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="4" max="5"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="97.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="14" bestFit="1" customWidth="1" min="7" max="8"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="16" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="15.5703125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="15" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="8" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="27.140625" bestFit="1" customWidth="1" min="15" max="15"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>component_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>component_label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>namespace</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>term_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>term_label</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>term_description</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>term_example</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>term_required</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>term_regex</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>term_cardinality</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>term_type</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>term_reference</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>termset</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>schema_name</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>schema_label</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bca</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>accession_number</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Accession Number</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A unique alphanumeric reference or identifier assigned to the sample in the study related to NCBI Taxonomy.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>accession123</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>stx_fish</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21348,7 +21162,7 @@
   <cols>
     <col width="17.140625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="37.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="39.85546875" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="255.7109375" bestFit="1" customWidth="1" min="6" max="7"/>
@@ -21376,7 +21190,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace_prefix</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -36153,13 +35967,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36169,7 +35983,7 @@
   <cols>
     <col width="17.140625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="33" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="32.140625" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="109.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
@@ -36197,7 +36011,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace_prefix</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -36274,7 +36088,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -36317,7 +36131,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -36344,7 +36158,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -36392,7 +36206,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -36419,7 +36233,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -36467,7 +36281,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -36494,7 +36308,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -36537,7 +36351,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -36564,7 +36378,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -36607,7 +36421,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -36634,7 +36448,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -36677,7 +36491,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -36704,32 +36518,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>tissue</t>
+          <t>organism</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tissue</t>
+          <t>Organism</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>The type of tissue sampled for the study.</t>
+          <t>The full scientific name of the species studied.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leaf</t>
+          <t>Arenicola marina</t>
         </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]+[a-z]+$</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>single</t>
@@ -36740,14 +36559,9 @@
           <t>string</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/NCIT_C19697</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -36764,41 +36578,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>imaging_protocol</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Imaging Protocol</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>imaging_protocol_id</t>
+          <t>strain</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Imaging Protocol ID</t>
+          <t>Strain</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A unique alphanumeric identifier for the imaging protocol.</t>
+          <t>An identifier of the strain of the organism, if applicable.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>img123</t>
+          <t>CCAP1119/17</t>
         </is>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -36815,9 +36629,14 @@
           <t>string</t>
         </is>
       </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>http://www.ebi.ac.uk/efo/EFO_0005135</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -36834,46 +36653,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>imaging_protocol</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Imaging Protocol</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>tissue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Platform</t>
+          <t>Tissue</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The platform used to isolate the cells.</t>
+          <t>The type of tissue sampled for the study.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Illumina NovaSeq</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -36885,9 +36699,14 @@
           <t>string</t>
         </is>
       </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCIT_C19697</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -36904,41 +36723,41 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>imaging_protocol</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Imaging Protocol</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>instrument</t>
+          <t>accession_number</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Instrument</t>
+          <t>Accession Number</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>The instrument used to isolate the cells.</t>
+          <t>A unique alphanumeric reference or identifier assigned to the sample in the study related to NCBI Taxonomy.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Illumina NovaSeq 6000</t>
+          <t>accession123</t>
         </is>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -36957,7 +36776,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>core</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -36984,31 +36803,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>dissociation_method</t>
+          <t>imaging_protocol_id</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dissociation Method</t>
+          <t>Imaging Protocol ID</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>The method used for dissociating the cells.</t>
+          <t>A unique alphanumeric identifier for the imaging protocol.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>enzymatic</t>
+          <t>img123</t>
         </is>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -37027,7 +36846,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -37054,31 +36873,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>dissociation_time</t>
+          <t>platform</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dissociation Time</t>
+          <t>Platform</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>The time duration for dissociation in minutes.</t>
+          <t>The platform used to isolate the cells.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Illumina NovaSeq</t>
         </is>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -37095,14 +36914,9 @@
           <t>string</t>
         </is>
       </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/XCO_0000153</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -37129,35 +36943,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>dissociation_temperature</t>
+          <t>instrument</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dissociation Temperature</t>
+          <t>Instrument</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>The temperature at which dissociation is performed in degrees celsius.</t>
+          <t>The instrument used to isolate the cells.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>Illumina NovaSeq 6000</t>
         </is>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>^-?\d+(\.\d+)?$</t>
+          <t>^[A-Za-z]*[a-z]+$</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -37167,12 +36981,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -37199,27 +37013,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>dissociation_enzyme</t>
+          <t>dissociation_method</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dissociation Enzyme</t>
+          <t>Dissociation Method</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>The enzyme used for dissociation.</t>
+          <t>The method used for dissociating the cells.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>collagenase</t>
+          <t>enzymatic</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -37242,7 +37056,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -37269,27 +37083,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>dissociation_enzyme_concentration</t>
+          <t>dissociation_time</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dissociation Enzyme Concentration</t>
+          <t>Dissociation Time</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>The concentration of the dissociation enzyme.</t>
+          <t>The time duration for dissociation in minutes.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H16" t="b">
@@ -37307,12 +37121,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/XCO_0000153</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -37339,22 +37158,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>material_incubation_temperature</t>
+          <t>dissociation_temperature</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Material Incubation Temperature</t>
+          <t>Dissociation Temperature</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>The temperature at which the material is incubated in degrees C.</t>
+          <t>The temperature at which dissociation is performed in degrees celsius.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -37382,7 +37201,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -37409,27 +37228,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>material_incubation_time</t>
+          <t>dissociation_enzyme</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Material Incubation Time</t>
+          <t>Dissociation Enzyme</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>The time duration for material incubation in hours.</t>
+          <t>The enzyme used for dissociation.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>collagenase</t>
         </is>
       </c>
       <c r="H18" t="b">
@@ -37447,17 +37266,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/XCO_0000153</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -37484,27 +37298,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>lysis_buffer_solution</t>
+          <t>dissociation_enzyme_concentration</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lysis Buffer Solution</t>
+          <t>Dissociation Enzyme Concentration</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>The solution used for lysis buffer.</t>
+          <t>The concentration of the dissociation enzyme.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>RIPA buffe</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H19" t="b">
@@ -37522,12 +37336,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -37554,35 +37368,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>target_probes</t>
+          <t>material_incubation_temperature</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Target Probes</t>
+          <t>Material Incubation Temperature</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>The type of probes used to detect and quantify specific RNA molecules in their native spatial context within a tissue or cell.</t>
+          <t>The temperature at which the material is incubated in degrees C.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Oligo-dT</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
+          <t>^-?\d+(\.\d+)?$</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -37592,12 +37406,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -37624,27 +37438,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>section_thickness_µm</t>
+          <t>material_incubation_time</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Section Thickness Μm</t>
+          <t>Material Incubation Time</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>The thickness of the tissue section in micrometres.</t>
+          <t>The time duration for material incubation in hours.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H21" t="b">
@@ -37652,7 +37466,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>^\d+(\.\d+)?$</t>
+          <t>^[A-Za-z]*[a-z]+$</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -37665,9 +37479,14 @@
           <t>number</t>
         </is>
       </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/XCO_0000153</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -37694,27 +37513,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>section_thickness_method</t>
+          <t>lysis_buffer_solution</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Section Thickness Method</t>
+          <t>Lysis Buffer Solution</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>The method used to measure tissue section thickness.</t>
+          <t>The solution used for lysis buffer.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Microtome</t>
+          <t>RIPA buffe</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -37737,7 +37556,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -37764,31 +37583,31 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>section_thickness_temperature</t>
+          <t>target_probes</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Section Thickness Temperature</t>
+          <t>Target Probes</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>The temperature at which the section was made.</t>
+          <t>The type of probes used to detect and quantify specific RNA molecules in their native spatial context within a tissue or cell.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Room temperature</t>
+          <t>Oligo-dT</t>
         </is>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -37802,12 +37621,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -37834,27 +37653,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>is_pathological</t>
+          <t>section_thickness_µm</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Is Pathological</t>
+          <t>Section Thickness Μm</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A quality inhering in a bearer by virtue of the bearer's being abnormal and having a destructive effect on living tissue.</t>
+          <t>The thickness of the tissue section in micrometres.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H24" t="b">
@@ -37862,7 +37681,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
+          <t>^\d+(\.\d+)?$</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -37872,12 +37691,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -37904,27 +37723,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>digestion_workflow</t>
+          <t>section_thickness_method</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Digestion Workflow</t>
+          <t>Section Thickness Method</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A link to a workflow describing the digestion protocol in Protocols.io</t>
+          <t>The method used to measure tissue section thickness.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Spatial transcriptomics dissociation</t>
+          <t>Microtome</t>
         </is>
       </c>
       <c r="H25" t="b">
@@ -37947,7 +37766,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -37974,27 +37793,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>digestion_time_in_minutes</t>
+          <t>section_thickness_temperature</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Digestion Time In Minutes</t>
+          <t>Section Thickness Temperature</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>The duration of digestion in minutes.</t>
+          <t>The temperature at which the section was made.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Room temperature</t>
         </is>
       </c>
       <c r="H26" t="b">
@@ -38017,7 +37836,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -38044,27 +37863,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>digestion_temperature</t>
+          <t>is_pathological</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Digestion Temperature</t>
+          <t>Is Pathological</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>The temperature at which digestion was carried out.</t>
+          <t>A quality inhering in a bearer by virtue of the bearer's being abnormal and having a destructive effect on living tissue.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H27" t="b">
@@ -38072,7 +37891,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>^-?\d+(\.\d+)?$</t>
+          <t>^[A-Za-z]*[a-z]+$</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -38082,12 +37901,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -38114,27 +37933,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>photobleaching_duration_in_hours</t>
+          <t>digestion_workflow</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Photobleaching Duration In Hours</t>
+          <t>Digestion Workflow</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>The duration of photobleaching in hours</t>
+          <t>A link to a workflow describing the digestion protocol in Protocols.io</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Spatial transcriptomics dissociation</t>
         </is>
       </c>
       <c r="H28" t="b">
@@ -38152,12 +37971,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -38184,31 +38003,31 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>instrument_user_guide</t>
+          <t>digestion_time_in_minutes</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Instrument User Guide</t>
+          <t>Digestion Time In Minutes</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>The user guide for the instrument used.</t>
+          <t>The duration of digestion in minutes.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>User Guide v1.2</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -38222,12 +38041,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -38254,35 +38073,35 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>instrument_user_guide_revision</t>
+          <t>digestion_temperature</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Instrument User Guide Revision</t>
+          <t>Digestion Temperature</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>The revision of the instrument user guide.</t>
+          <t>The temperature at which digestion was carried out.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
+          <t>^-?\d+(\.\d+)?$</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -38292,12 +38111,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -38324,31 +38143,31 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>sample_preparation_guide</t>
+          <t>photobleaching_duration_in_hours</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sample Preparation Guide</t>
+          <t>Photobleaching Duration In Hours</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>The guide used for sample preparation.</t>
+          <t>The duration of photobleaching in hours</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>preparation_guide_v1.0.pdf</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -38362,12 +38181,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -38394,27 +38213,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>sample_preparation_guide_revision</t>
+          <t>instrument_user_guide</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sample Preparation Guide Revision</t>
+          <t>Instrument User Guide</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>The revision of the sample preparation guide.</t>
+          <t>The user guide for the instrument used.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>User Guide v1.2</t>
         </is>
       </c>
       <c r="H32" t="b">
@@ -38437,7 +38256,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -38464,27 +38283,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>deviations_from_official_protocol</t>
+          <t>instrument_user_guide_revision</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Deviations From Official Protocol</t>
+          <t>Instrument User Guide Revision</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Any deviations from the official protocol. Separate individual deviations with '|'.</t>
+          <t>The revision of the instrument user guide.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Temperature exceeded 25°C during storage | Sample handling delayed by 2 hours</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="H33" t="b">
@@ -38507,7 +38326,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -38524,37 +38343,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>imaging_protocol</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>File</t>
+          <t>Imaging Protocol</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>imaging_protocol_id</t>
+          <t>sample_preparation_guide</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Imaging Protocol ID</t>
+          <t>Sample Preparation Guide</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A unique alphanumeric identifier for the imaging protocol.</t>
+          <t>The guide used for sample preparation.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>img123</t>
+          <t>preparation_guide_v1.0.pdf</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -38577,7 +38396,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -38594,37 +38413,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>imaging_protocol</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>File</t>
+          <t>Imaging Protocol</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>file_name</t>
+          <t>sample_preparation_guide_revision</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>File Name</t>
+          <t>Sample Preparation Guide Revision</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>A filename or file name is a name used to uniquely identify a data file related to the study.</t>
+          <t>The revision of the sample preparation guide.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>file001</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -38647,7 +38466,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -38664,37 +38483,37 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>imaging_protocol</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>File</t>
+          <t>Imaging Protocol</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>file_type</t>
+          <t>deviations_from_official_protocol</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>File Type</t>
+          <t>Deviations From Official Protocol</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, etc.</t>
+          <t>Any deviations from the official protocol. Separate individual deviations with '|'.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>fastq</t>
+          <t>Temperature exceeded 25°C during storage | Sample handling delayed by 2 hours</t>
         </is>
       </c>
       <c r="H36" t="b">
@@ -38717,7 +38536,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -38726,6 +38545,216 @@
         </is>
       </c>
       <c r="O36" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Image</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>imaging_protocol_id</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Imaging Protocol ID</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>A unique alphanumeric identifier for the imaging protocol.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>img123</t>
+        </is>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>stx_fish</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Image</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>File Name</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>A filename or file name is a name used to uniquely identify a data file related to the study.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>file001</t>
+        </is>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>stx_fish</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Spatial Transcriptomics Image</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>file_type</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>File Type</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, etc.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>fastq</t>
+        </is>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>^[A-Za-z]*[a-z]+$</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>ei</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>stx_fish</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>Spatial Transcriptomics Image</t>
         </is>
@@ -38736,277 +38765,16 @@
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1"/>
     <hyperlink ref="L4" r:id="rId2"/>
-    <hyperlink ref="L8" r:id="rId3"/>
-    <hyperlink ref="L13" r:id="rId4"/>
-    <hyperlink ref="L18" r:id="rId5"/>
+    <hyperlink ref="L9" r:id="rId3"/>
+    <hyperlink ref="L10" r:id="rId4"/>
+    <hyperlink ref="L16" r:id="rId5"/>
+    <hyperlink ref="L21" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="50.140625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="16" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="14" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="16" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="15.5703125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="36.42578125" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="8" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="27.140625" bestFit="1" customWidth="1" min="15" max="15"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>component_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>component_label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>namespace</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>term_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>term_label</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>term_description</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>term_example</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>term_required</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>term_regex</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>term_cardinality</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>term_type</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>term_reference</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>termset</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>schema_name</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>schema_label</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>organism</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Organism</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>The full scientific name of the species studied.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Arenicola marina</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]+[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>stx_fish</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>minsce</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>strain</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Strain</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>An identifier of the strain of the organism, if applicable.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CCAP1119/17</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>^[A-Za-z]*[a-z]+$</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>http://www.ebi.ac.uk/efo/EFO_0005135</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>stx_fish</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Spatial Transcriptomics Image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
-  <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -39022,7 +38790,7 @@
   <cols>
     <col width="17.140625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="41" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="255.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
@@ -39050,7 +38818,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace_prefix</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -40187,7 +39955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -40203,7 +39971,7 @@
   <cols>
     <col width="17.140625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="25.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="21.140625" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="183.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
@@ -40231,7 +39999,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace_prefix</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
